--- a/biology/Zoologie/Cucullia/Cucullia.xlsx
+++ b/biology/Zoologie/Cucullia/Cucullia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucullia est un genre de lépidoptères (papillons) de la famille des Noctuidae, de la sous-famille des Cuculliinae.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxinomie
-En Europe, le genre comporte trois sous-genres selon Fauna Europaea                                      (1er sept. 2013)[1] :
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, le genre comporte trois sous-genres selon Fauna Europaea                                      (1er sept. 2013) :
 sous-genre Cucullia (Calocucullia)
 sous-genre Cucullia (Cucullia)
 sous-genre Cucullia (Shargacucullia)
@@ -547,7 +564,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cucullia absinthii (Linnaeus, 1761)
@@ -603,7 +622,43 @@
 Cucullia umbratica (Linnaeus, 1758) - Ombrageuse
 Cucullia virgaureae Boisduval, 1840
 Cucullia xeranthemi Boisduval, 1840
-Espèces du sous-genre Shargacucullia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cucullia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucullia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces du sous-genre Shargacucullia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cucullia (Shargacucullia) barthae Boursin, 1933
 Cucullia (Shargacucullia) blattariae (Esper, 1790)
 Cucullia (Shargacucullia) canariensis Pinker, 1968
